--- a/delitosex_totales_dpto.xlsx
+++ b/delitosex_totales_dpto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julianuribegomez/Downloads/Archivos_delitosex_policia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A23C2051-7702-1341-B835-4AF7EC66E50D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{318FB422-B751-B947-807C-554C9BE1AEB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15760" xr2:uid="{7D5DEA10-C9A3-5F40-85E9-867A71783074}"/>
+    <workbookView xWindow="8100" yWindow="1000" windowWidth="20320" windowHeight="15760" xr2:uid="{7D5DEA10-C9A3-5F40-85E9-867A71783074}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja3" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>vaupes</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>departamento</t>
+  </si>
+  <si>
+    <t>bogota d.c. (ct)</t>
   </si>
 </sst>
 </file>
@@ -173,8 +176,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -509,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{989E2BD2-4F26-A443-B5FD-89C112FD722D}">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -530,15 +536,15 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>31</v>
+      <c r="A2" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="B2">
-        <v>70661</v>
+        <v>54323</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B3">
@@ -546,7 +552,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B4">
@@ -554,7 +560,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B5">
@@ -562,226 +568,234 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6">
+        <v>16338</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>14269</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>12485</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>11902</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>11341</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>10317</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>9874</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>9250</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>9220</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>8601</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <v>7724</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B16">
+      <c r="B17">
         <v>7628</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17">
+      <c r="B18">
         <v>7626</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <v>7442</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B19">
+      <c r="B20">
         <v>6922</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>5528</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>4308</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B22">
+      <c r="B23">
         <v>4215</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B23">
+      <c r="B24">
         <v>3493</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B24">
+      <c r="B25">
         <v>3114</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B25">
+      <c r="B26">
         <v>3030</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B26">
+      <c r="B27">
         <v>2554</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B27">
+      <c r="B28">
         <v>2441</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B28">
+      <c r="B29">
         <v>1174</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B29">
+      <c r="B30">
         <v>1080</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B30">
+      <c r="B31">
         <v>631</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B31">
+      <c r="B32">
         <v>489</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B32">
+      <c r="B33">
         <v>407</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B33">
+      <c r="B34">
         <v>276</v>
       </c>
     </row>
